--- a/ERP/Desarrollo/Desarrollo.xlsx
+++ b/ERP/Desarrollo/Desarrollo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Compras</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>Cancelar Transaccion</t>
+  </si>
+  <si>
+    <t>Cheques</t>
+  </si>
+  <si>
+    <t>Polizas de Cheque</t>
+  </si>
+  <si>
+    <t>Registrar Cheques</t>
+  </si>
+  <si>
+    <t>Eliminar Cheques</t>
+  </si>
+  <si>
+    <t>Consultar Cheques</t>
+  </si>
+  <si>
+    <t>Conciliacion Bancaria</t>
+  </si>
+  <si>
+    <t>Transacciones en Libros</t>
   </si>
 </sst>
 </file>
@@ -185,14 +206,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D63"/>
+  <dimension ref="B1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -504,14 +525,14 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5"/>
@@ -536,200 +557,235 @@
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="6"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B17" s="7" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="8"/>
+    <row r="25" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="2:3" ht="18.75" thickBot="1">
-      <c r="B29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="8"/>
+    <row r="28" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+    <row r="34" spans="2:3" ht="18.75" thickBot="1">
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="44" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="47" spans="2:3" ht="18.75" customHeight="1"/>
+    <row r="37" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="48" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
     <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="58" ht="18.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ERP/Desarrollo/Desarrollo.xlsx
+++ b/ERP/Desarrollo/Desarrollo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
@@ -137,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -186,11 +186,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -213,6 +237,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,7 +542,7 @@
   <dimension ref="B1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -637,18 +667,19 @@
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B23" s="6"/>

--- a/ERP/Desarrollo/Desarrollo.xlsx
+++ b/ERP/Desarrollo/Desarrollo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Compras</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Transacciones en Libros</t>
+  </si>
+  <si>
+    <t>Modificar Cheques</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -243,6 +246,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D68"/>
+  <dimension ref="B1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -555,10 +570,10 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
@@ -635,188 +650,218 @@
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B25" s="8" t="s">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" ht="18.75" thickBot="1">
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
+    <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:3" ht="18.75" thickBot="1">
+      <c r="B38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
     </row>
     <row r="40" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B40" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="48" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B45" s="6"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B46" s="6"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="56" spans="2:2" ht="18.75" customHeight="1"/>
+    <row r="57" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="58" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="62" spans="2:2" ht="18.75" customHeight="1"/>
+    <row r="63" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="18.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ERP/Desarrollo/Desarrollo.xlsx
+++ b/ERP/Desarrollo/Desarrollo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
+    <workbookView xWindow="10140" yWindow="195" windowWidth="9660" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Compras</t>
   </si>
@@ -42,18 +42,12 @@
     <t>Cuentas por Pagar</t>
   </si>
   <si>
-    <t>Catalogos</t>
-  </si>
-  <si>
     <t>Procesos</t>
   </si>
   <si>
     <t>Reportes</t>
   </si>
   <si>
-    <t>Transaccion</t>
-  </si>
-  <si>
     <t>Cuenta</t>
   </si>
   <si>
@@ -63,40 +57,91 @@
     <t>Concepto</t>
   </si>
   <si>
-    <t>Registrar Transaccion</t>
-  </si>
-  <si>
-    <t>Consulta Transaccion</t>
-  </si>
-  <si>
-    <t>Modificar Transaccion</t>
-  </si>
-  <si>
-    <t>Cancelar Transaccion</t>
-  </si>
-  <si>
-    <t>Cheques</t>
-  </si>
-  <si>
-    <t>Polizas de Cheque</t>
-  </si>
-  <si>
-    <t>Registrar Cheques</t>
-  </si>
-  <si>
-    <t>Eliminar Cheques</t>
-  </si>
-  <si>
-    <t>Consultar Cheques</t>
-  </si>
-  <si>
-    <t>Conciliacion Bancaria</t>
-  </si>
-  <si>
     <t>Transacciones en Libros</t>
   </si>
   <si>
-    <t>Modificar Cheques</t>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Orden de compra</t>
+  </si>
+  <si>
+    <t>Registrar Orden de Compra</t>
+  </si>
+  <si>
+    <t>Consulta Orden de Compra</t>
+  </si>
+  <si>
+    <t>Modificar Orden de Compra</t>
+  </si>
+  <si>
+    <t>Cancelar Orden de Compra</t>
+  </si>
+  <si>
+    <t>Orden de Compra</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Consulta Transacción</t>
+  </si>
+  <si>
+    <t>Modificar Transacción</t>
+  </si>
+  <si>
+    <t>Cancelar Transacción</t>
+  </si>
+  <si>
+    <t>Conciliación Bancaria</t>
+  </si>
+  <si>
+    <t>Catálogos</t>
+  </si>
+  <si>
+    <t>Requisición</t>
+  </si>
+  <si>
+    <t>Registrar Requisición</t>
+  </si>
+  <si>
+    <t>Consulta Requisición</t>
+  </si>
+  <si>
+    <t>Modificar Requisición</t>
+  </si>
+  <si>
+    <t>Cancelar Requisición</t>
+  </si>
+  <si>
+    <t>Registrar Orden de Compra (Requisición)</t>
+  </si>
+  <si>
+    <t>Transacción</t>
+  </si>
+  <si>
+    <t>Registrar Transacción</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Registrar Cheque</t>
+  </si>
+  <si>
+    <t>Modificar Cheque</t>
+  </si>
+  <si>
+    <t>Consultar Cheque</t>
+  </si>
+  <si>
+    <t>Cancelar Cheque</t>
+  </si>
+  <si>
+    <t>Consulta Orden de Compra recibidas parcialmente</t>
   </si>
 </sst>
 </file>
@@ -132,12 +177,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -217,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -245,20 +296,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,314 +626,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D72"/>
+  <dimension ref="B1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J8" sqref="H8:J8"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="7" t="s">
-        <v>9</v>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="7" t="s">
-        <v>10</v>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10"/>
+      <c r="B21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B27" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B24" s="15" t="s">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B45" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B47" s="22"/>
+      <c r="C47" s="19"/>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B48" s="22"/>
+      <c r="C48" s="19"/>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="5" t="s">
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B53" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B27" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B31" s="12" t="s">
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B56" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B35" s="12" t="s">
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B58" s="6"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B59" s="6"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B60" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="2:3" ht="18.75" thickBot="1">
-      <c r="B38" s="12" t="s">
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B61" s="6"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B62" s="6"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B41" s="12" t="s">
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B64" s="6"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B65" s="6"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B44" s="12" t="s">
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B67" s="6"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B68" s="6"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B69" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="56" spans="2:2" ht="18.75" customHeight="1"/>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="62" spans="2:2" ht="18.75" customHeight="1"/>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B70" s="6"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B71" s="6"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="77" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="78" spans="2:3" ht="18.75" customHeight="1"/>
+    <row r="79" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="80" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="18.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="18.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="18.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="18.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ERP/Desarrollo/Desarrollo.xlsx
+++ b/ERP/Desarrollo/Desarrollo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Compras</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Consulta Orden de Compra recibidas parcialmente</t>
+  </si>
+  <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Tipo de cuenta</t>
   </si>
 </sst>
 </file>
@@ -268,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -296,6 +305,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -305,31 +341,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,36 +641,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D106"/>
+  <dimension ref="B1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="53" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7"/>
@@ -664,269 +681,281 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B27" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="16"/>
-    </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B34" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="7"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C35" s="7"/>
     </row>
     <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B36" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B37" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C37" s="7"/>
     </row>
     <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B38" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="15" t="s">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="19"/>
     </row>
     <row r="43" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B45" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="17" t="s">
+      <c r="C45" s="21"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B46" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B47" s="22"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="22"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B50" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="16"/>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B51" s="6"/>
@@ -937,155 +966,158 @@
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B54" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="16"/>
-    </row>
-    <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B57" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="12"/>
-    </row>
-    <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
+      <c r="C57" s="21"/>
     </row>
     <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B58" s="6"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B61" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="21"/>
     </row>
     <row r="62" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B63" s="6"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B64" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B64" s="6"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B65" s="6"/>
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B67" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B67" s="6"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="21"/>
     </row>
     <row r="68" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B68" s="6"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B69" s="11" t="s">
+    <row r="69" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B69" s="6"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B70" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="12"/>
-    </row>
-    <row r="70" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B70" s="6"/>
-      <c r="C70" s="5"/>
+      <c r="C70" s="21"/>
     </row>
     <row r="71" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:3" ht="15.75" customHeight="1">
+    <row r="72" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B72" s="6"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:3" ht="18.75" customHeight="1">
+    <row r="74" spans="2:3" ht="15.75" customHeight="1">
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="2:3" ht="18.75" customHeight="1">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="76" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B76" s="1"/>
+    </row>
     <row r="77" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="78" spans="2:3" ht="18.75" customHeight="1"/>
-    <row r="79" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="78" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="79" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="80" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="18.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="18.75" customHeight="1"/>
     <row r="84" ht="15.75" customHeight="1"/>
     <row r="85" ht="15.75" customHeight="1"/>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
     <row r="88" ht="15.75" customHeight="1"/>
     <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="18.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="18.75" customHeight="1"/>
     <row r="92" ht="15.75" customHeight="1"/>
     <row r="93" ht="15.75" customHeight="1"/>
     <row r="94" ht="15.75" customHeight="1"/>
     <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="18.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="18.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1"/>
     <row r="101" ht="15.75" customHeight="1"/>
     <row r="102" ht="15.75" customHeight="1"/>
     <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="18.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="18.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B69:C69"/>
+  <mergeCells count="16">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ERP/Desarrollo/Desarrollo.xlsx
+++ b/ERP/Desarrollo/Desarrollo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Compras</t>
   </si>
@@ -644,7 +644,7 @@
   <dimension ref="B1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -727,7 +727,9 @@
       <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="18" t="s">
@@ -739,55 +741,73 @@
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B22" s="18" t="s">

--- a/ERP/Desarrollo/Desarrollo.xlsx
+++ b/ERP/Desarrollo/Desarrollo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Compras</t>
   </si>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -819,19 +819,25 @@
       <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B26" s="20" t="s">
